--- a/dsmb_ccru_tables/ae_detail EXAMPLE_STUDY  30OCT2020.xlsx
+++ b/dsmb_ccru_tables/ae_detail EXAMPLE_STUDY  30OCT2020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -32,22 +32,91 @@
     <t xml:space="preserve">% of the subjects that this comprises of the total accrual (N=12)</t>
   </si>
   <si>
+    <t xml:space="preserve">BLOOD AND LYMPHATIC SYSTEM DISORDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANEMIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEBRILE NEUTROPENIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEUKOCYTOSIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHITEBLOODCELLINCREASED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHITEBLOODCELLSINCREASED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.67</t>
+  </si>
+  <si>
     <t xml:space="preserve">CARDIAC DISORDERS</t>
   </si>
   <si>
     <t xml:space="preserve">ATRIAL FIBRILLATION</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERICARDIAL EFFUSION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.67</t>
+    <t xml:space="preserve">8.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATRIAL FLUTTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARDIACTROPONINIINCREASED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELECTROCARDIOGRAMQTCORRECTEDINTERVALPROLONGED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SINUS BRADYCARDIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VENTRICULAR TACHYCARDIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EAR AND LABYRINTH DISORDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EAR PAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENDOCRINE DISORDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THYROID NODULE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EYE DISORDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLURRED VISION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOATERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERIORBITAL EDEMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIGHTEYESTYE</t>
   </si>
   <si>
     <t xml:space="preserve">GASTROINTESTINAL DISORDERS</t>
@@ -62,121 +131,286 @@
     <t xml:space="preserve">CONSTIPATION</t>
   </si>
   <si>
-    <t xml:space="preserve">33.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DYSPHAGIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESOPHAGITIS</t>
+    <t xml:space="preserve">DIARRHEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRY MOUTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DYSPEPSIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEMORRHOIDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOOSE BOWEL MOVEMENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOWERGASTROINTESTINALHEMORRHAGE</t>
   </si>
   <si>
     <t xml:space="preserve">NAUSEA</t>
   </si>
   <si>
+    <t xml:space="preserve">ORAL DYSESTHESIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORALLESIONTOLEFTSIDEOFTONGUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMALLBOWELOBSTRUCTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOMITING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENERAL DISORDERS AND ADMINISTRATION SITE CONDITIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHILLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDEMA LIMBS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FATIGUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAIT DISTURBANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NON-CARDIAC CHEST PAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFUSIONREACTION(PLATELETS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEPATOBILIARY DISORDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOLECYSTITIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELEVATED LIVER ENZYMES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMMUNE SYSTEM DISORDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANAPHYLAXIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFECTIONS AND INFESTATIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABSCESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COAGULASENEGATIVESTAPHYLOCOCCUSPOSITIVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENTEROCOCCUSFACEIUMBACTEREMIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUNG INFECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERIORBITAL INFECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLEURAL INFECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEPSIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKIN INFECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THRUSH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URINARY TRACT INFECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INJURY, POISONING AND PROCEDURAL COMPLICATIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2BLISTERSONLEFTINDEXFINGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRUISING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REDNESSTOPREVIOUSJUGULARLINESITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INVESTIGATIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALANINE AMINOTRANSFERASE INCREASED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALKALINE PHOSPHATASE INCREASED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASPARTATE AMINOTRANSFERASE INCREASED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BALPOSITIVEFORASPERGILLUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOOD BILIRUBIN INCREASED</t>
+  </si>
+  <si>
     <t xml:space="preserve">58.33</t>
   </si>
   <si>
-    <t xml:space="preserve">VOMITING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GENERAL DISORDERS AND ADMINISTRATION SITE CONDITIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHILLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDEMA LIMBS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FATIGUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEVER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INFECTIONS AND INFESTATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUNG INFECTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INJURY, POISONING AND PROCEDURAL COMPLICATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RADIATION HEPATITIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SACRAL ULCER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WOUND DEHISCENCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INVESTIGATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEIGHT LOSS</t>
+    <t xml:space="preserve">CREATININE INCREASED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELECTROCARDIOGRAM QT CORRECTED INTERVAL PROLONGED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEUTROPHIL COUNT DECREASED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLATELET COUNT DECREASED</t>
   </si>
   <si>
     <t xml:space="preserve">METABOLISM AND NUTRITION DISORDERS</t>
   </si>
   <si>
+    <t xml:space="preserve">ACIDOSIS</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANOREXIA</t>
   </si>
   <si>
-    <t xml:space="preserve">41.67</t>
+    <t xml:space="preserve">GLUCOSE INTOLERANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYPERPHOSPHATEMIA</t>
   </si>
   <si>
     <t xml:space="preserve">HYPERURICEMIA</t>
   </si>
   <si>
+    <t xml:space="preserve">HYPOALBUMINEMIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYPOCALCEMIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYPOKALEMIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYPOMAGNESEMIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYPOPHOSPHATEMIA</t>
+  </si>
+  <si>
     <t xml:space="preserve">MUSCULOSKELETAL AND CONNECTIVE TISSUE DISORDERS</t>
   </si>
   <si>
+    <t xml:space="preserve">ARTHRITIS</t>
+  </si>
+  <si>
     <t xml:space="preserve">BACK PAIN</t>
   </si>
   <si>
-    <t xml:space="preserve">CHEST WALL PAIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUMBNESS AT SURGICAL SITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAIN IN EXTREMITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUBCUTANEOUS FIBROSIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SURGICAL SITE PAIN</t>
+    <t xml:space="preserve">BONE PAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENERALIZED MUSCLE WEAKNESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCIATICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIRESDNESS-MUSCLETENSION(BILATERALTOTHIGHS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEOPLASMS BENIGN, MALIGNANT AND UNSPECIFIED (INCL CYSTS AND POLYPS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEFTBREASTINVASIVEMAMMARYCARCINOMA</t>
   </si>
   <si>
     <t xml:space="preserve">NERVOUS SYSTEM DISORDERS</t>
   </si>
   <si>
+    <t xml:space="preserve">DEPRESSED LEVEL OF CONSCIOUSNESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIZZINESS</t>
+  </si>
+  <si>
     <t xml:space="preserve">DYSGEUSIA</t>
   </si>
   <si>
-    <t xml:space="preserve">SPINAL STROKE</t>
+    <t xml:space="preserve">HEADACHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERCRANIALHEMORRHAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTRACRANIAL HEMORRHAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARESTHESIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPATIALDISLOCATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYNCOPE</t>
   </si>
   <si>
     <t xml:space="preserve">PSYCHIATRIC DISORDERS</t>
   </si>
   <si>
+    <t xml:space="preserve">AGITATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPRESSION</t>
+  </si>
+  <si>
     <t xml:space="preserve">INSOMNIA</t>
   </si>
   <si>
+    <t xml:space="preserve">RENAL AND URINARY DISORDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DYSURIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEMATURIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TINGLINGTOPENIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URINARY FREQUENCY</t>
+  </si>
+  <si>
     <t xml:space="preserve">REPRODUCTIVE SYSTEM AND BREAST DISORDERS</t>
   </si>
   <si>
-    <t xml:space="preserve">NIGHT SWEATS</t>
+    <t xml:space="preserve">ERECTILE DYSFUNCTION</t>
   </si>
   <si>
     <t xml:space="preserve">RESPIRATORY, THORACIC AND MEDIASTINAL DISORDERS</t>
@@ -185,37 +419,73 @@
     <t xml:space="preserve">COUGH</t>
   </si>
   <si>
-    <t xml:space="preserve">50.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">DYSPNEA</t>
   </si>
   <si>
-    <t xml:space="preserve">75.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOARSENESS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNEUMONITIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUCTIVE COUGH</t>
+    <t xml:space="preserve">EPISTAXIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEMOPTYSIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYPOXIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NASAL CONGESTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLEURITIC PAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESPIRATORY FAILURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SORE THROAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFUSION-RELATEDACUTELUNGINJRY(TRALI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFUSION-RELATEDACUTELUNGINJURY(TRALI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHEEZING</t>
   </si>
   <si>
     <t xml:space="preserve">SKIN AND SUBCUTANEOUS TISSUE DISORDERS</t>
   </si>
   <si>
-    <t xml:space="preserve">HYPERHIDROSIS</t>
+    <t xml:space="preserve">DRY SKIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERYTHEMIALEFTBREAST/LEFTCHESTWALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYPOPIGMENTATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEFTWRISTSOFTTISSUEINDURATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LESION-BACKOFLEFTTHIGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LESIONOFFLAKINGSKIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUMPTORIGHTSHIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRURITUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RASH MACULO-PAPULAR</t>
   </si>
   <si>
     <t xml:space="preserve">VASCULAR DISORDERS</t>
   </si>
   <si>
     <t xml:space="preserve">HYPOTENSION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THROMBOEMBOLIC EVENT</t>
   </si>
   <si>
     <t xml:space="preserve">Phase X Study to Evaluate Treatments A-D</t>
@@ -758,22 +1028,22 @@
   <sheetData>
     <row r="1" ht="50" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" ht="82" customHeight="1">
@@ -804,13 +1074,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>9</v>
@@ -824,13 +1094,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>11</v>
@@ -838,27 +1108,27 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C12" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>14</v>
@@ -867,118 +1137,118 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E13" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E15" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E16" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="E17" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E18" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>24</v>
@@ -987,18 +1257,18 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E19" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>25</v>
@@ -1007,153 +1277,153 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E20" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E22" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E23" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E24" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E25" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E26" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E27" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -1161,10 +1431,10 @@
         <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>17</v>
@@ -1173,158 +1443,158 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E29" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="E31" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E32" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E33" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E34" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E35" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>8</v>
@@ -1333,218 +1603,218 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C37" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E37" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C38" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E38" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E39" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E40" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E41" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="E42" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E43" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="C44" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E44" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C45" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E45" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E46" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>17</v>
@@ -1553,27 +1823,1667 @@
         <v>0</v>
       </c>
       <c r="F47" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="11" t="s">
+      <c r="E55" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" s="10" t="s">
+      <c r="B56" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F66" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E48" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" s="12" t="s">
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E70" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C77" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C79" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C80" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C81" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C82" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C83" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C84" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C85" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C86" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C88" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C89" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C90" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C91" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C92" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C93" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C94" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E94" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C95" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C97" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E97" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C98" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C99" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C100" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C101" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C102" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C103" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C104" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C105" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C106" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C107" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C108" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E108" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C109" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C110" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C111" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C112" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C113" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C114" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E114" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C115" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E115" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C116" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C117" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C118" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E118" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C119" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C120" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C121" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C122" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C123" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C124" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E124" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C125" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C126" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E126" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C127" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C128" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E128" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C129" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E129" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C130" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
